--- a/Docs/Tablas de Datos Lab5 - maquina 1.xlsx
+++ b/Docs/Tablas de Datos Lab5 - maquina 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\lab5\Reto1-G11\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FB1D17-8362-4AC9-B724-9254EE3043E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D76178-B156-4118-9B60-743A958060D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab4-5" sheetId="1" r:id="rId1"/>
@@ -10406,7 +10406,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3D4D373F-B89D-476A-916E-D6B8B50B0AC1}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11017,8 +11017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F15:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -11387,18 +11387,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11613,6 +11613,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -11625,14 +11633,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
